--- a/medicine/Enfance/Hervé_Prudon/Hervé_Prudon.xlsx
+++ b/medicine/Enfance/Hervé_Prudon/Hervé_Prudon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Prudon</t>
+          <t>Hervé_Prudon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hervé Prudon, né le 27 décembre 1950 à Sannois (Seine-et-Oise) et mort le 14 octobre 2017 à Paris[1],[2], est un écrivain, journaliste et scénariste français, spécialisé dans le roman policier et la littérature d'enfance et de jeunesse. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hervé Prudon, né le 27 décembre 1950 à Sannois (Seine-et-Oise) et mort le 14 octobre 2017 à Paris est un écrivain, journaliste et scénariste français, spécialisé dans le roman policier et la littérature d'enfance et de jeunesse. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Prudon</t>
+          <t>Hervé_Prudon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après une enfance dans la banlieue pavillonnaire, puis en HLM, il fait des études supérieures à l'Université Sorbonne Nouvelle - Paris 3 et obtient une maîtrise en Lettres en 1974. Grand voyageur, il séjourne ensuite en Australie, au Népal et dans divers pays européens. « De retour à Paris, il échoue à l'agrégation et travaille comme manutentionnaire, accessoiriste de théâtre, déménageur, pigiste »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après une enfance dans la banlieue pavillonnaire, puis en HLM, il fait des études supérieures à l'Université Sorbonne Nouvelle - Paris 3 et obtient une maîtrise en Lettres en 1974. Grand voyageur, il séjourne ensuite en Australie, au Népal et dans divers pays européens. « De retour à Paris, il échoue à l'agrégation et travaille comme manutentionnaire, accessoiriste de théâtre, déménageur, pigiste ».
 Il publie son premier roman Mardi gris dans la collection Série noire en 1978. Jean-Patrick Manchette salue « sa furia et sa maestria », mais ses audaces stylistiques et ses univers déglingués le marginalisent. 
-Après ses deux premiers romans, il collabore à divers journaux : Le Monde, Libération, Le Nouvel Observateur, Cosmopolitan. Il travaille aussi comme nègre littéraire, une « expérience qu'il raconte dans Plume de nègre (1987) »[3].
+Après ses deux premiers romans, il collabore à divers journaux : Le Monde, Libération, Le Nouvel Observateur, Cosmopolitan. Il travaille aussi comme nègre littéraire, une « expérience qu'il raconte dans Plume de nègre (1987) ».
 Il revient à la Série Noire en 1995 avec Nadine Mouque, couronné par le prix Louis-Guilloux, qui raconte les pathétiques aventures d'un vieux garçon chômeur et alcoolique de la banlieue parisienne, et deux autres romans l'année suivante. Depuis, il a publié chez Grasset et Flammarion des romans et récits qui s'éloignent du genre policier. Ze big Slip (2006) appartient toutefois au roman policier humoristique, tout comme Ouarzazate et mourir (1996), un épisode du Poulpe.
-Il a également signé des scénarios pour des courts métrages, des adaptations théâtrales pour la radio[4] et, en 1998, la pièce Comme des malades, une expérience théâtrale très remarquée avec le comédien Jacques Bonnafé.
-Il est le père de l'auteur de bande dessinée Léopold Prudon[5].
+Il a également signé des scénarios pour des courts métrages, des adaptations théâtrales pour la radio et, en 1998, la pièce Comme des malades, une expérience théâtrale très remarquée avec le comédien Jacques Bonnafé.
+Il est le père de l'auteur de bande dessinée Léopold Prudon.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Herv%C3%A9_Prudon</t>
+          <t>Hervé_Prudon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,8 +563,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Mardi gris, Gallimard, coll. « Série noire » no 1724 (1978)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mardi gris, Gallimard, coll. « Série noire » no 1724 (1978)
 Tarzan malade, Éditions des autres (1979) ; réédition, Gallimard, coll. « Série noire » no 2457 (1997)
 Banquise, Fayard coll. « Fayard noir » no 3 (1981) ; réédition, Édito-Service, coll. « Les Classiques du crime » (1983) ; nouvelle édition revue et corrigée, Éditions La Table ronde, coll. « La Petite Vermillon » (2009)
 Les Yeux doux, Mazarine (1983)
@@ -569,20 +588,122 @@
 Ours et Fils, Grasset (2004)
 La Sainte journée, Après la Lune, coll. « La Maîtresse en maillot de bain » no 9 (2006)
 Ze big Slip, Éditions La Branche, coll. « Suite noire » no 6 (2006)
-La Langue chienne, Gallimard, coll. « Série noire » (2008)
-Ouvrages de littérature d'enfance et de jeunesse
-Le Fils du héros, Bayard Presse, coll. « Je bouquine » no 23 (1986)
+La Langue chienne, Gallimard, coll. « Série noire » (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hervé_Prudon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Prudon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Fils du héros, Bayard Presse, coll. « Je bouquine » no 23 (1986)
 En route pour Zanzibar, Albin Michel, coll. « Jeunesse » (1996)
 Il fait plus froid dehors que la nuit, Éditions de La Loupiote, coll. « Zèbres » no 5 (1997)
 J’ai trois ans et pas toi, Verticales (1999), dessins de Muzo
-Dead line, Liber Niger (2000), dessins de Muzo
-Autres publications
-Le Bourdon, J.L. Lesfargues, coll. « Traboule » (1982), en collaboration avec Pierre Marcelle
+Dead line, Liber Niger (2000), dessins de Muzo</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hervé_Prudon</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Prudon</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Bourdon, J.L. Lesfargues, coll. « Traboule » (1982), en collaboration avec Pierre Marcelle
 Au matin j’explose, poèmes, Éditions Le Ricochet (1999), dessins de Muzo
-Devant la mort, poèmes, Gallimard, coll. « Blanche » (2018)
-Théâtre
-Comme des malades (1998)
-Le Fantôme de Canterville, adaptation radiophonique de la pièce d'Oscar Wilde (2014 pour France Culture)[6].</t>
+Devant la mort, poèmes, Gallimard, coll. « Blanche » (2018)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hervé_Prudon</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Herv%C3%A9_Prudon</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Comme des malades (1998)
+Le Fantôme de Canterville, adaptation radiophonique de la pièce d'Oscar Wilde (2014 pour France Culture).</t>
         </is>
       </c>
     </row>
